--- a/Data/Transitions/19531968Translation.xlsx
+++ b/Data/Transitions/19531968Translation.xlsx
@@ -460,7 +460,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -661,7 +661,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -838,7 +838,7 @@
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.629934096866161e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.629934096866161e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -1342,7 +1342,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1462,7 +1462,7 @@
     <t>{887.0: 0.995879732739421, 619.0: 0.0006435006435006435}</t>
   </si>
   <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.01113244988159588, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1570,7 +1570,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -2107,7 +2107,7 @@
     <t>{781.0: 0.9992775312209718, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
   </si>
   <si>
     <t>{787.0: 0.9919894647611935, 500.0: 0.0080055674650148, 277.0: 4.967773791507788e-06}</t>
@@ -2203,7 +2203,7 @@
     <t>{933.0: 0.9655641758540902, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
-    <t>{940.0: 0.993292810731503, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.003833906064369998, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.993292810731503, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
